--- a/WorkDiary/20180820-20180824.xlsx
+++ b/WorkDiary/20180820-20180824.xlsx
@@ -500,10 +500,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
